--- a/public/storage/excel/xuat-kho.xlsx
+++ b/public/storage/excel/xuat-kho.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -45,21 +45,6 @@
   </si>
   <si>
     <t>Nhà cung cấp</t>
-  </si>
-  <si>
-    <t>MT01</t>
-  </si>
-  <si>
-    <t>Mì tôm hảo hảo</t>
-  </si>
-  <si>
-    <t>Gói</t>
-  </si>
-  <si>
-    <t>01-04-2023</t>
-  </si>
-  <si>
-    <t>Bình</t>
   </si>
 </sst>
 </file>
@@ -399,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +394,7 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -449,38 +434,6 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>132123</v>
-      </c>
-      <c r="G2">
-        <v>132123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
